--- a/src/test/feed/testData/TD.xlsx
+++ b/src/test/feed/testData/TD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">searchKey</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRS Mamra/Pori/Puffed Rice (200g)</t>
   </si>
 </sst>
 </file>
@@ -104,9 +107,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -122,7 +129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -132,11 +139,9 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -151,11 +156,14 @@
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/src/test/feed/testData/TD.xlsx
+++ b/src/test/feed/testData/TD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t xml:space="preserve">searchKey</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">TRS Mamra/Pori/Puffed Rice (200g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shree Krishna Premium Basmati Rice (10kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native Foods Kullakar Rice (500g)</t>
   </si>
 </sst>
 </file>
@@ -133,15 +139,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -160,6 +166,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
